--- a/resources/experiment 2/metrics/MAPE/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.4213705682003807</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.4213705682003805</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4213705682003804</v>
       </c>
       <c r="D2" t="n">
         <v>0.4213705682003804</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1312956345189074</v>
+        <v>0.0324731432071553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1312957508755602</v>
+        <v>0.03242383074417194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1312957508755602</v>
+        <v>0.1699595858781286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02560853037019123</v>
+        <v>0.03513881945894168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02560875543462574</v>
+        <v>0.03459865781640419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02560875543462574</v>
+        <v>0.1347765933567942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5163916363123372</v>
+        <v>0.03073366596206964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5163916363123372</v>
+        <v>0.02938574997184816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5163916363123372</v>
+        <v>0.05941973989784682</v>
       </c>
     </row>
   </sheetData>
